--- a/medicine/Mort/Cimetière_de_Molenbeek-Saint-Jean/Cimetière_de_Molenbeek-Saint-Jean.xlsx
+++ b/medicine/Mort/Cimetière_de_Molenbeek-Saint-Jean/Cimetière_de_Molenbeek-Saint-Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Molenbeek-Saint-Jean</t>
+          <t>Cimetière_de_Molenbeek-Saint-Jean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cimetière communal de Molenbeek-Saint-Jean est le cimetière de la commune de Molenbeek. Il est situé chaussée de Gand, n° 539. Il fut inauguré le 16 août 1864, pour remplacer l'ancien cimetière paroissial devenu trop petit - et dont les dernières traces ont disparu en 1932.
-Il concentre aujourd'hui un patrimoine considérable et protégé - dont des galeries funéraires bâties en 1880, initialement imaginées pour le cimetière de Laeken par Émile Bockstael[1], le monument de la famille Jean De Maerschalck (avenue 2), réalisé par Ernest Salu et plusieurs chapelles.
+Il concentre aujourd'hui un patrimoine considérable et protégé - dont des galeries funéraires bâties en 1880, initialement imaginées pour le cimetière de Laeken par Émile Bockstael, le monument de la famille Jean De Maerschalck (avenue 2), réalisé par Ernest Salu et plusieurs chapelles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Molenbeek-Saint-Jean</t>
+          <t>Cimetière_de_Molenbeek-Saint-Jean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,21 +524,23 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cimetière de Molenbeek se distingue davantage par son architecture que par la notoriété des personnes qui y sont enterrées. On notera toutefois, parmi les personnalités inhumées à Molenbeek :
 Jean-Baptiste Piron (1896-1974), général de l'armée belge (pelouse d'honneur)
 Eugène Laermans (1864-1940), peintre (pelouse 26)
 Sander Pierron (1872-1945), écrivain, critique d’art.
 Henry Meuwis (1870-1935), peintre (pelouse 15)
-Édouard Van Haelen (1895-1936), nageur, médaillé olympique en 1920 à Anvers[2].
+Édouard Van Haelen (1895-1936), nageur, médaillé olympique en 1920 à Anvers.
 Ernest Kindermans (1875-1932), fondateur du Kaaitheater.
 Louise Charlotte Massart (1880-1906), dramaturge (avenue 2)
-Rudolf Dubois, comédien[3]
+Rudolf Dubois, comédien
 Jan Frantz De Mol, compositeur (avenue 3)
 Quelques bourgmestres de Molenbeek
 Henri Hollevoet (1833-1911), bourgmestre de 1879 à 1911.
-Julien Hanssens (1842-1914), bourgmestre de 1912 à 1914[4].
+Julien Hanssens (1842-1914), bourgmestre de 1912 à 1914.
 Louis Mettewie (1855-1942), bourgmestre de 1919 à 1938.
 Edmond Machtens (1902-1978), bourgmestre de 1939 à1978.
 Quelques échevins de Molenbeek
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Molenbeek-Saint-Jean</t>
+          <t>Cimetière_de_Molenbeek-Saint-Jean</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tram 82, arrêt Cimetière de Molenbeek.
 Bus 49, arrêt Cimetière de Molenbeek.
